--- a/Excel_Files/Stats_Populations/1.5_cm/673_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/673_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.000192915422079661</v>
+        <v>0.001904502494257753</v>
       </c>
       <c r="D2">
-        <v>0.0004004059365997013</v>
+        <v>0.002045716851104379</v>
       </c>
       <c r="E2">
-        <v>0.0001951453215110862</v>
+        <v>0.001866324581007352</v>
       </c>
       <c r="F2">
-        <v>0.000186262457462246</v>
+        <v>0.001770050693892162</v>
       </c>
       <c r="G2">
-        <v>0.0001010808778725394</v>
+        <v>0.001606186826984508</v>
       </c>
       <c r="H2">
-        <v>0.0004004059365997013</v>
+        <v>0.002045716851104379</v>
       </c>
       <c r="I2">
-        <v>0.0004252747794877531</v>
+        <v>0.002591586402483362</v>
       </c>
       <c r="J2">
-        <v>0.0005764601557835654</v>
+        <v>0.002589872208913533</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>8.473035854254438E-05</v>
+        <v>0.001468640340055712</v>
       </c>
       <c r="D3">
-        <v>0.0002989035255352581</v>
+        <v>0.001861147659479737</v>
       </c>
       <c r="E3">
-        <v>0.0001274404628085593</v>
+        <v>0.001592085519479518</v>
       </c>
       <c r="F3">
-        <v>5.469225946159439E-05</v>
+        <v>0.001219008039831534</v>
       </c>
       <c r="G3">
-        <v>5.282961842850818E-05</v>
+        <v>0.001210873401745418</v>
       </c>
       <c r="H3">
-        <v>0.0001397142415309653</v>
+        <v>0.001641683368013117</v>
       </c>
       <c r="I3">
-        <v>0.0001214594087467311</v>
+        <v>0.001689500342800809</v>
       </c>
       <c r="J3">
-        <v>4.897856764226652E-05</v>
+        <v>0.001179678789546785</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3.931260631007191E-05</v>
+        <v>0.001087264217215851</v>
       </c>
       <c r="D4">
-        <v>0.0001121451672449555</v>
+        <v>0.001557120925994841</v>
       </c>
       <c r="E4">
-        <v>7.807126152410076E-05</v>
+        <v>0.001376366443204564</v>
       </c>
       <c r="F4">
-        <v>1.940053078297267E-05</v>
+        <v>0.0007909757357600267</v>
       </c>
       <c r="G4">
-        <v>1.921736695429327E-05</v>
+        <v>0.0007786338060841477</v>
       </c>
       <c r="H4">
-        <v>5.456943918070997E-05</v>
+        <v>0.001224742977807954</v>
       </c>
       <c r="I4">
-        <v>8.753616981499472E-05</v>
+        <v>0.001475147483147418</v>
       </c>
       <c r="J4">
-        <v>2.004232766626381E-05</v>
+        <v>0.0007849595726312272</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1.266958037456552E-06</v>
+        <v>0.0002110450123544332</v>
       </c>
       <c r="D5">
-        <v>1.843593012256097E-06</v>
+        <v>0.0002542458269657156</v>
       </c>
       <c r="E5">
-        <v>1.331009327994987E-06</v>
+        <v>0.0002152791900528621</v>
       </c>
       <c r="F5">
-        <v>4.81347869107115E-07</v>
+        <v>0.0001317768985627886</v>
       </c>
       <c r="G5">
-        <v>2.720653299329727E-07</v>
+        <v>9.854661342854483E-05</v>
       </c>
       <c r="H5">
-        <v>6.438730928990351E-07</v>
+        <v>0.0001520885989385561</v>
       </c>
       <c r="I5">
-        <v>1.555886170192318E-06</v>
+        <v>0.0002301820569756787</v>
       </c>
       <c r="J5">
-        <v>1.60362050511701E-06</v>
+        <v>0.0002259350617178483</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7.120692625119859E-07</v>
+        <v>0.0001614733931175127</v>
       </c>
       <c r="D6">
-        <v>5.394894031926904E-07</v>
+        <v>0.0001448984159108184</v>
       </c>
       <c r="E6">
-        <v>4.815225847190729E-07</v>
+        <v>0.0001299493001537379</v>
       </c>
       <c r="F6">
-        <v>1.531450544227748E-07</v>
+        <v>7.671913252245856E-05</v>
       </c>
       <c r="G6">
-        <v>9.991535967889403E-08</v>
+        <v>5.90392270767245E-05</v>
       </c>
       <c r="H6">
-        <v>1.703849879715604E-07</v>
+        <v>7.855019824659675E-05</v>
       </c>
       <c r="I6">
-        <v>8.452102039822216E-07</v>
+        <v>0.0001647704672557489</v>
       </c>
       <c r="J6">
-        <v>7.115324466346269E-07</v>
+        <v>0.000151636736968163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3.326525490912712E-07</v>
+        <v>0.0001056703456791545</v>
       </c>
       <c r="D7">
-        <v>1.627876845723104E-07</v>
+        <v>7.880633137740214E-05</v>
       </c>
       <c r="E7">
-        <v>1.096842599534665E-07</v>
+        <v>6.825224510933166E-05</v>
       </c>
       <c r="F7">
-        <v>2.938503338582066E-08</v>
+        <v>3.335084744929902E-05</v>
       </c>
       <c r="G7">
-        <v>5.214317862837246E-08</v>
+        <v>4.484086218038815E-05</v>
       </c>
       <c r="H7">
-        <v>2.938503338582066E-08</v>
+        <v>3.335084744929902E-05</v>
       </c>
       <c r="I7">
-        <v>3.189720995489616E-07</v>
+        <v>0.0001080909140007226</v>
       </c>
       <c r="J7">
-        <v>2.800101204723122E-07</v>
+        <v>9.418240969182799E-05</v>
       </c>
     </row>
   </sheetData>
